--- a/results/refinement/gProfiler_processed.xlsx
+++ b/results/refinement/gProfiler_processed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rutger.vos/Documents/local-projects/brassica-snps/results/refinement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{761B5E8B-D0DA-0F42-991E-C1D9B151257B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2760CD69-BD59-A146-A3BB-9485DBDBE0BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="30260" windowHeight="19540"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="30260" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gProfiler_processed" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -529,7 +529,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +715,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -887,7 +893,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -925,6 +931,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,14 +1296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AH43"/>
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1456,7 +1471,7 @@
       <c r="T2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="V2" s="10" t="s">
@@ -1560,7 +1575,7 @@
       <c r="T3" s="12">
         <v>0</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="18">
         <v>1</v>
       </c>
       <c r="V3" s="12">
@@ -1664,7 +1679,7 @@
       <c r="T4" s="12">
         <v>0</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="18">
         <v>1</v>
       </c>
       <c r="V4" s="12">
@@ -1768,7 +1783,7 @@
       <c r="T5" s="12">
         <v>1</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="18">
         <v>1</v>
       </c>
       <c r="V5" s="12">
@@ -1872,7 +1887,7 @@
       <c r="T6" s="12">
         <v>0</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="18">
         <v>1</v>
       </c>
       <c r="V6" s="12">
@@ -1976,7 +1991,7 @@
       <c r="T7" s="12">
         <v>1</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="18">
         <v>1</v>
       </c>
       <c r="V7" s="12">
@@ -2080,7 +2095,7 @@
       <c r="T8" s="12">
         <v>0</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="18">
         <v>1</v>
       </c>
       <c r="V8" s="12">
@@ -2184,7 +2199,7 @@
       <c r="T9" s="12">
         <v>0</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="18">
         <v>1</v>
       </c>
       <c r="V9" s="12">
@@ -2288,7 +2303,7 @@
       <c r="T10" s="12">
         <v>0</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="18">
         <v>1</v>
       </c>
       <c r="V10" s="12">
@@ -2392,7 +2407,7 @@
       <c r="T11" s="12">
         <v>0</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="18">
         <v>1</v>
       </c>
       <c r="V11" s="12">
@@ -2496,7 +2511,7 @@
       <c r="T12" s="12">
         <v>0</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="18">
         <v>1</v>
       </c>
       <c r="V12" s="12">
@@ -2600,7 +2615,7 @@
       <c r="T13" s="12">
         <v>0</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="18">
         <v>1</v>
       </c>
       <c r="V13" s="12">
@@ -2704,7 +2719,7 @@
       <c r="T14" s="12">
         <v>0</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="18">
         <v>1</v>
       </c>
       <c r="V14" s="12">
@@ -2808,7 +2823,7 @@
       <c r="T15" s="12">
         <v>1</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="18">
         <v>1</v>
       </c>
       <c r="V15" s="12">
@@ -2912,7 +2927,7 @@
       <c r="T16" s="12">
         <v>0</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16" s="18">
         <v>1</v>
       </c>
       <c r="V16" s="12">
@@ -3016,7 +3031,7 @@
       <c r="T17" s="12">
         <v>0</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="18">
         <v>1</v>
       </c>
       <c r="V17" s="12">
@@ -3120,7 +3135,7 @@
       <c r="T18" s="12">
         <v>0</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18" s="18">
         <v>1</v>
       </c>
       <c r="V18" s="12">
@@ -3224,7 +3239,7 @@
       <c r="T19" s="12">
         <v>0</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19" s="18">
         <v>1</v>
       </c>
       <c r="V19" s="12">
@@ -3328,7 +3343,7 @@
       <c r="T20" s="12">
         <v>0</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="18">
         <v>1</v>
       </c>
       <c r="V20" s="12">
@@ -3432,7 +3447,7 @@
       <c r="T21" s="12">
         <v>0</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="18">
         <v>1</v>
       </c>
       <c r="V21" s="12">
@@ -3536,7 +3551,7 @@
       <c r="T22" s="12">
         <v>0</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="18">
         <v>0</v>
       </c>
       <c r="V22" s="12">
@@ -3640,7 +3655,7 @@
       <c r="T23" s="12">
         <v>0</v>
       </c>
-      <c r="U23" s="12">
+      <c r="U23" s="18">
         <v>0</v>
       </c>
       <c r="V23" s="12">
@@ -3744,7 +3759,7 @@
       <c r="T24" s="12">
         <v>0</v>
       </c>
-      <c r="U24" s="12">
+      <c r="U24" s="18">
         <v>1</v>
       </c>
       <c r="V24" s="12">
@@ -3848,7 +3863,7 @@
       <c r="T25" s="12">
         <v>0</v>
       </c>
-      <c r="U25" s="12">
+      <c r="U25" s="18">
         <v>0</v>
       </c>
       <c r="V25" s="12">
@@ -3952,7 +3967,7 @@
       <c r="T26" s="12">
         <v>1</v>
       </c>
-      <c r="U26" s="12">
+      <c r="U26" s="18">
         <v>1</v>
       </c>
       <c r="V26" s="12">
@@ -4056,7 +4071,7 @@
       <c r="T27" s="12">
         <v>0</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U27" s="18">
         <v>1</v>
       </c>
       <c r="V27" s="12">
@@ -4160,7 +4175,7 @@
       <c r="T28" s="12">
         <v>1</v>
       </c>
-      <c r="U28" s="12">
+      <c r="U28" s="18">
         <v>1</v>
       </c>
       <c r="V28" s="12">
@@ -4264,7 +4279,7 @@
       <c r="T29" s="12">
         <v>0</v>
       </c>
-      <c r="U29" s="12">
+      <c r="U29" s="18">
         <v>1</v>
       </c>
       <c r="V29" s="12">
@@ -4368,7 +4383,7 @@
       <c r="T30" s="12">
         <v>0</v>
       </c>
-      <c r="U30" s="12">
+      <c r="U30" s="18">
         <v>0</v>
       </c>
       <c r="V30" s="12">
@@ -4472,7 +4487,7 @@
       <c r="T31" s="12">
         <v>0</v>
       </c>
-      <c r="U31" s="12">
+      <c r="U31" s="18">
         <v>0</v>
       </c>
       <c r="V31" s="12">
@@ -4576,7 +4591,7 @@
       <c r="T32" s="12">
         <v>0</v>
       </c>
-      <c r="U32" s="12">
+      <c r="U32" s="18">
         <v>1</v>
       </c>
       <c r="V32" s="12">
@@ -4680,7 +4695,7 @@
       <c r="T33" s="12">
         <v>0</v>
       </c>
-      <c r="U33" s="12">
+      <c r="U33" s="18">
         <v>0</v>
       </c>
       <c r="V33" s="12">
@@ -4784,7 +4799,7 @@
       <c r="T34" s="12">
         <v>0</v>
       </c>
-      <c r="U34" s="12">
+      <c r="U34" s="18">
         <v>0</v>
       </c>
       <c r="V34" s="12">
@@ -4888,7 +4903,7 @@
       <c r="T35" s="12">
         <v>1</v>
       </c>
-      <c r="U35" s="12">
+      <c r="U35" s="18">
         <v>0</v>
       </c>
       <c r="V35" s="12">
@@ -4992,7 +5007,7 @@
       <c r="T36" s="12">
         <v>0</v>
       </c>
-      <c r="U36" s="12">
+      <c r="U36" s="18">
         <v>1</v>
       </c>
       <c r="V36" s="12">
@@ -5096,7 +5111,7 @@
       <c r="T37" s="12">
         <v>1</v>
       </c>
-      <c r="U37" s="12">
+      <c r="U37" s="18">
         <v>0</v>
       </c>
       <c r="V37" s="12">
@@ -5200,7 +5215,7 @@
       <c r="T38" s="12">
         <v>0</v>
       </c>
-      <c r="U38" s="12">
+      <c r="U38" s="18">
         <v>0</v>
       </c>
       <c r="V38" s="12">
@@ -5304,7 +5319,7 @@
       <c r="T39" s="12">
         <v>1</v>
       </c>
-      <c r="U39" s="12">
+      <c r="U39" s="18">
         <v>0</v>
       </c>
       <c r="V39" s="12">
@@ -5408,7 +5423,7 @@
       <c r="T40" s="12">
         <v>0</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="18">
         <v>1</v>
       </c>
       <c r="V40" s="12">
@@ -5512,7 +5527,7 @@
       <c r="T41" s="12">
         <v>1</v>
       </c>
-      <c r="U41" s="12">
+      <c r="U41" s="18">
         <v>0</v>
       </c>
       <c r="V41" s="12">
@@ -5616,7 +5631,7 @@
       <c r="T42" s="12">
         <v>1</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="18">
         <v>0</v>
       </c>
       <c r="V42" s="12">
@@ -5720,7 +5735,7 @@
       <c r="T43" s="15">
         <v>0</v>
       </c>
-      <c r="U43" s="15">
+      <c r="U43" s="19">
         <v>1</v>
       </c>
       <c r="V43" s="15">
